--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F47B58-8AB3-410F-BC55-C02E93EC6B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA846D-599E-49A3-A253-C7DE497B9163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -1814,6 +1814,25 @@
     <rPh sb="31" eb="32">
       <t>カンガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇考えること</t>
+    <rPh sb="1" eb="2">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2073,14 +2092,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2108,6 +2121,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6584,7 +6603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -6596,18 +6615,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:3" ht="19.5" thickBot="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="37.5">
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>45587</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6636,15 +6655,15 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="8"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -7116,11 +7135,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" s="16" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7175,8 +7194,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:7" s="18" customFormat="1">
+      <c r="A14" s="18" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7205,8 +7224,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="20" customFormat="1">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:2" s="18" customFormat="1">
+      <c r="A22" s="18" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7215,8 +7234,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="20" customFormat="1">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:2" s="18" customFormat="1">
+      <c r="A26" s="18" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7240,8 +7259,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="18" customFormat="1">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:1" s="16" customFormat="1">
+      <c r="A36" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7260,8 +7279,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="18" customFormat="1">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:1" s="16" customFormat="1">
+      <c r="A47" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7270,8 +7289,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="19" customFormat="1">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:3" s="17" customFormat="1">
+      <c r="A49" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7320,8 +7339,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="19" customFormat="1">
-      <c r="A70" s="19" t="s">
+    <row r="70" spans="1:15" s="17" customFormat="1">
+      <c r="A70" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7356,8 +7375,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="18" customFormat="1">
-      <c r="A89" s="18" t="s">
+    <row r="89" spans="1:3" s="16" customFormat="1">
+      <c r="A89" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7402,151 +7421,151 @@
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="17"/>
+      <c r="B111" s="15"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="17"/>
+      <c r="B119" s="15"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="17"/>
+      <c r="B127" s="15"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7562,10 +7581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="B2:B21"/>
+  <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7655,8 +7674,29 @@
         <v>125</v>
       </c>
     </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA846D-599E-49A3-A253-C7DE497B9163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D27B4ED-8E32-4251-A148-4D01F442A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -1833,6 +1833,58 @@
   </si>
   <si>
     <t>チュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗発表。攻撃の判定を前に出すことはできたけど、プレイヤー側で敵のどの当たり判定に当たったかを検出する必要があるため、当たった当たり判定データもOn〇〇Enterなどに渡す。</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョクハッピョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ワタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6603,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6882,7 +6934,9 @@
       <c r="B37" s="4">
         <v>45621</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="4">
@@ -7583,8 +7637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D27B4ED-8E32-4251-A148-4D01F442A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA038A5-74D9-4960-9FA4-499B629EDC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
-    <sheet name="シーン遷移" sheetId="2" r:id="rId2"/>
-    <sheet name="実装メモ" sheetId="3" r:id="rId3"/>
-    <sheet name="することメモ" sheetId="4" r:id="rId4"/>
+    <sheet name="各シーンイメージ" sheetId="5" r:id="rId2"/>
+    <sheet name="シーン遷移" sheetId="2" r:id="rId3"/>
+    <sheet name="実装メモ" sheetId="3" r:id="rId4"/>
+    <sheet name="することメモ" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="159">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -1887,12 +1888,256 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化画面</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何かしらのボタンを押すとメインメニューに行くだけ</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状特別なことをするつもりはないが、時間があれば何かする？めちゃめちゃ優先度低</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置のレイアウトをもっとどうにかしたい</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト、強化、ランキング、オプション、タイトルに遷移する</t>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージを選択か、メインメニューに戻る</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右側をどうするか考える</t>
+    <rPh sb="0" eb="2">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ、最高スコア、ランキングを乗せたい</t>
+    <rPh sb="4" eb="6">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクトのUIは本家みたいなのをイメージ</t>
+    <rPh sb="12" eb="14">
+      <t>ホンケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面倒なので省略。ほぼ本家をイメージ。</t>
+    <rPh sb="0" eb="2">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホンケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のステージ、スコア詳細、強化、ステージセレクトに遷移する。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっとアニメーションありのUIにしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームに戻る、ステージをリスタートする、オプション、ステージセレクトに遷移する</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あくまでポーズ中だからあまりこだわらなくていいイメージ</t>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量(マスター、BGM、SE)の調整、スティック感度の調整、フルスクリーンの変更</t>
+    <rPh sb="0" eb="2">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンド</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できることならオプションの項目を増やしたいけど候補がキーコンフィグしかない</t>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1928,6 +2173,14 @@
       <color theme="10"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2121,7 +2374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2179,6 +2432,8 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2198,6 +2453,1723 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B822D1-08C2-5E23-81E1-2CF38F827630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="466724"/>
+          <a:ext cx="5495926" cy="2867026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDD0CCC-B232-A305-AF87-8C9BB3F6E348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="790575"/>
+          <a:ext cx="2181225" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ロゴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526BF69E-42FE-0D4A-C4E2-7B51A6EEE69C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2333625"/>
+          <a:ext cx="3019425" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ボタンを押して開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF3D9D6-EC8B-4F96-9C32-445EFE31309F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4048125"/>
+          <a:ext cx="5495926" cy="2867026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B59B29B-EB7C-40A8-23EB-ECFDF034B2DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="4591050"/>
+          <a:ext cx="2133600" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ステージセレクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA7B1DA-D8D3-4E6D-A208-F1A2705A2CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="4591050"/>
+          <a:ext cx="2133600" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>強化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF48ADF-1990-4F14-8074-9C004E2BDF78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="5876926"/>
+          <a:ext cx="2133600" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C700BB5-1F29-4708-B916-194FEC5F563D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="5876926"/>
+          <a:ext cx="2133600" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>オプション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7B65D1-416F-4B7E-B4FF-1ACA56289CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7620000"/>
+          <a:ext cx="5495926" cy="2867026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12A70A1-3B4D-42FE-8134-75A8A2779639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="8105775"/>
+          <a:ext cx="2105025" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ステージセレクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F224CA-7AF9-4D28-B912-8256AC43A990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="8086725"/>
+          <a:ext cx="2105025" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ウィンドウ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E224C5A4-217C-454A-A170-37365CC41B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="8448675"/>
+          <a:ext cx="1933575" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>マップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>最高スコア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63BD6EA-F968-4165-939F-D7369AB49C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11906250"/>
+          <a:ext cx="5495926" cy="2867026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>背景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ゲーム画面を背景とする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0664F42-110E-E8D7-2F89-CB5A44FFD253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="12230100"/>
+          <a:ext cx="1914525" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>勲章数など</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FF12C2-03D5-4D88-8650-915A2DA0C584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543176" y="12944475"/>
+          <a:ext cx="1543050" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>スコア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE4967-C1E5-4B07-826D-159FB11392B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352676" y="13344525"/>
+          <a:ext cx="1943100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>次のステージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E2F810-C726-4F3F-90D1-414510EB8105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352676" y="13658850"/>
+          <a:ext cx="1943100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>スコア詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A60E33E-B754-4650-AF27-5E26D6D484C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352676" y="13973175"/>
+          <a:ext cx="1943100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>強化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBEB42B-3A84-42FD-89F6-EB9F40020CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352676" y="14277975"/>
+          <a:ext cx="1943100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ステージセレクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F5FE47-F519-4939-9D69-B6ABBD8394A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="15478125"/>
+          <a:ext cx="5495926" cy="2867026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>背景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ゲーム画面を背景とする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D860C32B-2E60-4054-91B8-28BBB305B36A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314576" y="16944975"/>
+          <a:ext cx="1943100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ゲームに戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FD1CBA-08D6-4C8B-AF10-D150BF90E6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314576" y="17259300"/>
+          <a:ext cx="1943100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>リスタート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFB2F5F-72D7-48EA-AFC4-AB36B6728EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314576" y="17573625"/>
+          <a:ext cx="1943100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>オプション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AABB35-FACC-44AB-BF43-0E0B666E37B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314576" y="17887950"/>
+          <a:ext cx="1943100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ステージセレクトに戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E9A3DB-69C4-4DA5-960F-D7A7FBC229A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19050000"/>
+          <a:ext cx="5495926" cy="2867026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A670AB12-F0ED-4722-86C9-B0B47EF4DF28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="19411950"/>
+          <a:ext cx="3267075" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ウィンドウ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4046,7 +6018,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6655,7 +8627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -7164,6 +9136,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E773784E-698B-46E4-B9BF-6422FEF0899F}">
+  <dimension ref="A1:K97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N90" sqref="N90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="16" customFormat="1">
+      <c r="A1" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="K3" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="K4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="K5" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="K6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="16" customFormat="1">
+      <c r="A16" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="K18" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="K20" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="K21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="16" customFormat="1">
+      <c r="A31" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="K33" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="K34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="K35" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="K36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="K37" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="K38" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="16" customFormat="1">
+      <c r="A46" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="16" customFormat="1">
+      <c r="A49" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="K51" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="K52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="K53" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="K54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="16" customFormat="1">
+      <c r="A64" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="K66" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="K67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="K68" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="K69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="16" customFormat="1">
+      <c r="A79" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="K81" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="K82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="K83" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="K84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="16" customFormat="1">
+      <c r="A94" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="16" customFormat="1">
+      <c r="A97" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA012B-3F19-40C9-A64D-0A5ADFBF8360}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7179,7 +9348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O134"/>
   <sheetViews>
@@ -7633,7 +9802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="B2:B27"/>
   <sheetViews>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA038A5-74D9-4960-9FA4-499B629EDC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279E5A4-195A-49D1-9ADC-013C8D91645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="176">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -2129,6 +2129,209 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化について</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原作ではトラップの強化しかできないが</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスボウの攻撃力</t>
+    <rPh sb="6" eb="9">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得できるトラップポイントの倍率</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スロット開放</t>
+    <rPh sb="4" eb="6">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を強化項目に増やしてもいいかも</t>
+    <rPh sb="1" eb="5">
+      <t>キョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスボウの攻撃力は、スコアを目指すうえで上げる必要がないためいらないかも</t>
+    <rPh sb="6" eb="9">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンドコンテンツ的な</t>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての勲章(スカル)を集めるとすることといえば各ステージのスコア更新ぐらい？</t>
+    <rPh sb="4" eb="6">
+      <t>クンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージと敵出現情報をごちゃまぜにしたランダムステージか、エンドレスステージを作ってもいいかも</t>
+    <rPh sb="5" eb="10">
+      <t>テキシュツゲンジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ランダムステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新たにデータを作ることなく実装できる可能性があるため比較的制作コストは少ないかも</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ヒカクテキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングをつけるとするなら、フェーズ数などで敵の出現数が異なり、最大スコアそのものに差ができそうなため、そこは考えどころ</t>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>シュツゲンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇エンドレスステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新たにデータを作る必要があるうえ、それに対応できる構造にする必要があるため制作コストそのものがかなり大規模。できたら上がいい。</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ダイキボ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングは今までと同じためコストなし。</t>
+    <rPh sb="6" eb="7">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2426,14 +2629,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -8679,7 +8882,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -8687,7 +8890,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="22"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -9139,7 +9342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E773784E-698B-46E4-B9BF-6422FEF0899F}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
@@ -9151,7 +9354,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9161,7 +9364,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9176,7 +9379,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9186,7 +9389,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9201,7 +9404,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9211,7 +9414,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9221,12 +9424,12 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="22" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="K38" s="24" t="s">
+      <c r="K38" s="22" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9246,7 +9449,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="K51" s="23" t="s">
+      <c r="K51" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9256,7 +9459,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="K53" s="23" t="s">
+      <c r="K53" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9271,7 +9474,7 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="K66" s="23" t="s">
+      <c r="K66" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9281,7 +9484,7 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="K68" s="23" t="s">
+      <c r="K68" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9296,7 +9499,7 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="K81" s="23" t="s">
+      <c r="K81" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9306,7 +9509,7 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="K83" s="23" t="s">
+      <c r="K83" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9350,10 +9553,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O134"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9762,34 +9965,119 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:3">
       <c r="B129" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:3">
       <c r="B130" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:3">
       <c r="B131" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:3">
       <c r="B132" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="1:3">
       <c r="B133" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:3">
       <c r="B134" s="13" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="16" customFormat="1">
+      <c r="A137" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="C140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="C141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="C142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="B143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="16" customFormat="1">
+      <c r="A146" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="B147" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="C148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="B150" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="C151" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="C152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="B154" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="C155" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="C156" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9806,8 +10094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279E5A4-195A-49D1-9ADC-013C8D91645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DFCFA6-1D5E-467C-97D4-3310996F352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9556,7 +9556,7 @@
   <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+      <selection activeCell="A158" sqref="A158:XFD158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DFCFA6-1D5E-467C-97D4-3310996F352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711F9CB-1A9D-482D-9A20-6CEB7D892E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="189">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -2335,12 +2335,124 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>リソースマネージャーについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画像</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・シェーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に分かれている</t>
+    <rPh sb="1" eb="2">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト、サウンドはそれぞれのマネージャーでそのリソースを管理しているためいいと思うが、</t>
+    <rPh sb="30" eb="32">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンドルマネージャーにまとめてしまって、サウンド、エフェクトはそれぞれの独自の機能を持つ</t>
+    <rPh sb="36" eb="38">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像、モデル、シェーダーは読み込み、ハンドルを取得、読み込み終了済みかどうか、リソースクリアの機能のみ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込み、ハンドルを取得、読み込み終了済みかどうか、リソースクリアの機能は全部共通のため、</t>
+    <rPh sb="19" eb="20">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>ゼンブキョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→実質ハンドルをもっているだけなのになんかめんどくさい</t>
+    <rPh sb="1" eb="3">
+      <t>ジッシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2381,6 +2493,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2577,7 +2698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2637,6 +2758,13 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9553,10 +9681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:XFD158"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="M177" sqref="M177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10078,6 +10206,71 @@
     <row r="156" spans="1:3">
       <c r="C156" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="25" customFormat="1">
+      <c r="A158" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="B159" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="B160" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="C165" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="C169" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711F9CB-1A9D-482D-9A20-6CEB7D892E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B266F-5564-46F2-A044-7114F5EDB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="2970" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
     <sheet name="各シーンイメージ" sheetId="5" r:id="rId2"/>
     <sheet name="シーン遷移" sheetId="2" r:id="rId3"/>
     <sheet name="実装メモ" sheetId="3" r:id="rId4"/>
-    <sheet name="することメモ" sheetId="4" r:id="rId5"/>
+    <sheet name="あ" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1746,58 +1746,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇プレイヤー周り</t>
-  </si>
-  <si>
-    <t>・プレイヤーの球をレティクル通りのところに飛ばす</t>
-  </si>
-  <si>
-    <t>・カメラの地形との当たっている状態から当たっていない状態に戻る時ガクッとするやつの修正</t>
-  </si>
-  <si>
-    <t>・死亡時にも弾を撃てるのを撃てないようにする</t>
-  </si>
-  <si>
-    <t>・足場から落下時に空中状態に遷移するようにする</t>
-  </si>
-  <si>
-    <t>〇敵周り</t>
-  </si>
-  <si>
-    <t>・攻撃の当たり判定を向いている方向に出す</t>
-  </si>
-  <si>
-    <t>・敵のヘッドショット判定を頭の位置と同期させる</t>
-  </si>
-  <si>
-    <t>・</t>
-  </si>
-  <si>
-    <t>○罠周り</t>
-  </si>
-  <si>
-    <t>・トラップがちゃんと攻撃出来るようにする</t>
-  </si>
-  <si>
-    <t>○すること</t>
-  </si>
-  <si>
-    <t>・置こうとしている罠を場所選択中仮表示させる</t>
-  </si>
-  <si>
-    <t>・置こうとしている罠の攻撃範囲を描画させる</t>
-  </si>
-  <si>
-    <t>・壁に設置できるようにする</t>
-  </si>
-  <si>
-    <t>・床との当たり判定を厳密にしたい</t>
-  </si>
-  <si>
-    <t>・プレイヤーの弾を撃つ初期位置の調整</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ChatGPTより</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1818,25 +1766,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇考えること</t>
-    <rPh sb="1" eb="2">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シェーダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セーブデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チュートリアル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>進捗発表。攻撃の判定を前に出すことはできたけど、プレイヤー側で敵のどの当たり判定に当たったかを検出する必要があるため、当たった当たり判定データもOn〇〇Enterなどに渡す。</t>
     <rPh sb="0" eb="4">
       <t>シンチョクハッピョウ</t>
@@ -2445,6 +2374,243 @@
     <rPh sb="1" eb="3">
       <t>ジッシツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇修正メモ</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーステートのジャンプを三つに分ける</t>
+    <rPh sb="16" eb="17">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→高いところから降りたときに空中ステートに遷移させたいから</t>
+    <rPh sb="1" eb="2">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マップの床との当たり判定を調整</t>
+    <rPh sb="5" eb="6">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→キャラクターの中心座標で見ているのをちゃんとカプセルにしたい</t>
+    <rPh sb="8" eb="12">
+      <t>チュウシンザヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内藤先生に聞きたいこと</t>
+    <rPh sb="0" eb="4">
+      <t>ナイトウセンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トラップの種類が最大10個想定だが、ゲームシーンで使用する罠選択の仕様はいるか</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ワナセンタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージごとに変える情報</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの配置データ</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の生成情報</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>セイセイジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの当たり判定モデル*2</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェーズ数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期罠ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スロット数？</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←ステージごとではなく強化できるものにしてしまうかも</t>
+    <rPh sb="11" eb="13">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・強化項目にプレイヤー関連の項目を増やすのはありか</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇考えることメモ</t>
+    <rPh sb="1" eb="2">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵の移動ルートの決め方(群れ機能を利用するか、も)</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠を壁に設置する処理</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・UI</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2752,12 +2918,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2765,6 +2925,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9010,7 +9176,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -9018,7 +9184,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -9238,7 +9404,7 @@
         <v>45621</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -9478,17 +9644,17 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1">
       <c r="A1" s="20" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="K3" s="21" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="K4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -9498,22 +9664,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="K6" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="16" customFormat="1">
       <c r="A16" s="20" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="K18" s="21" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="K19" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -9523,22 +9689,22 @@
     </row>
     <row r="21" spans="1:11">
       <c r="K21" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="16" customFormat="1">
       <c r="A31" s="20" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="K33" s="21" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="K34" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -9548,42 +9714,42 @@
     </row>
     <row r="36" spans="1:11">
       <c r="K36" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="K37" s="22" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="K38" s="22" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="16" customFormat="1">
       <c r="A46" s="20" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="B47" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="16" customFormat="1">
       <c r="A49" s="20" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="K51" s="21" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="K52" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9593,22 +9759,22 @@
     </row>
     <row r="54" spans="1:11">
       <c r="K54" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="16" customFormat="1">
       <c r="A64" s="20" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="K66" s="21" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="K67" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -9618,22 +9784,22 @@
     </row>
     <row r="69" spans="1:11">
       <c r="K69" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="16" customFormat="1">
       <c r="A79" s="20" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="K81" s="21" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="K82" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -9643,17 +9809,17 @@
     </row>
     <row r="84" spans="1:11">
       <c r="K84" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="16" customFormat="1">
       <c r="A94" s="20" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:1" s="16" customFormat="1">
       <c r="A97" s="20" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -9681,10 +9847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="M177" sqref="M177"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9956,7 +10122,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="B94" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9971,7 +10137,7 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="2:2">
@@ -10125,152 +10291,190 @@
     </row>
     <row r="137" spans="1:3" s="16" customFormat="1">
       <c r="A137" s="16" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="B138" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="B139" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="C140" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="C141" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="C142" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="B143" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="C144" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="16" customFormat="1">
       <c r="A146" s="16" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="B147" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="C148" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="B150" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="C151" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="C152" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="B154" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="C155" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="C156" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" s="25" customFormat="1">
-      <c r="A158" s="26" t="s">
-        <v>176</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="23" customFormat="1">
+      <c r="A158" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="B159" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="B160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="B161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="B162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="B164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="C165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="B167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="B168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="C169" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="B171" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="B172" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="16" customFormat="1">
+      <c r="A175" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="2:3">
-      <c r="B161" t="s">
+    <row r="178" spans="2:4">
+      <c r="B178" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="2:3">
-      <c r="B162" t="s">
+    <row r="179" spans="2:4">
+      <c r="B179" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="2:3">
-      <c r="B163" t="s">
+    <row r="180" spans="2:4">
+      <c r="B180" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="2:3">
-      <c r="B164" t="s">
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="C165" t="s">
+      <c r="D182" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3">
-      <c r="B167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3">
-      <c r="B168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3">
-      <c r="C169" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3">
-      <c r="B171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3">
-      <c r="B172" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -10285,117 +10489,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="B2:B27"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+    <row r="2" spans="2:3" s="16" customFormat="1">
+      <c r="B2" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="16" customFormat="1">
+      <c r="B11" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>124</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="16" customFormat="1">
+      <c r="B20" s="16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>132</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B266F-5564-46F2-A044-7114F5EDB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB24E0-630D-4884-976C-970598C31B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2970" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="190">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -2611,6 +2611,28 @@
   </si>
   <si>
     <t>・UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クロスボウの弱体化案(撃てる間隔を大きくする、リロードをしないと撃てないようにする等)</t>
+    <rPh sb="7" eb="11">
+      <t>ジャクタイカアン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10492,7 +10514,7 @@
   <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10547,6 +10569,11 @@
         <v>188</v>
       </c>
     </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+    </row>
     <row r="20" spans="2:2" s="16" customFormat="1">
       <c r="B20" s="16" t="s">
         <v>174</v>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB24E0-630D-4884-976C-970598C31B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C643F3-247A-4618-A830-CF1EE14F2281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="192">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -2632,6 +2632,35 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SceneResult-&gt;SceneRanking-&gt;SceneResultと遷移すると背景にしているゲームシーンのリソースが削除される</t>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーンが切り替わるたびにリソースを全削除しているのが原因</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ゼンサクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゲンイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9869,10 +9898,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10497,6 +10526,17 @@
       </c>
       <c r="D182" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" s="16" customFormat="1"/>
+    <row r="186" spans="2:4">
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -10513,7 +10553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C643F3-247A-4618-A830-CF1EE14F2281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D5098-FC4E-4FA5-9BBB-6940E831F2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="194">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -2636,31 +2636,63 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SceneResult-&gt;SceneRanking-&gt;SceneResultと遷移すると背景にしているゲームシーンのリソースが削除される</t>
-    <rPh sb="39" eb="41">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーンが切り替わるたびにリソースを全削除しているのが原因</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ゼンサクジョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゲンイン</t>
+    <t>移動について</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在(12.19)の制作段階では</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>セイサクダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnityでWayPointデータを出力してそれをEnemyManagerで読み込むことまで成功している</t>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵生成時点でルートを決定してそのウェイポイント配列をそれぞれの敵が自身が管理して敵それぞれが移動するようにしたい</t>
+    <rPh sb="0" eb="5">
+      <t>テキセイセイジテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7540,7 +7572,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>20490</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4943475" cy="2779859"/>
@@ -9898,10 +9930,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O188"/>
+  <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10146,399 +10178,409 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="16" customFormat="1">
-      <c r="A89" s="16" t="s">
+    <row r="90" spans="1:2" s="17" customFormat="1">
+      <c r="A90" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="16" customFormat="1">
+      <c r="A120" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="B90" t="s">
+    <row r="121" spans="1:3">
+      <c r="B121" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="B91" t="s">
+    <row r="122" spans="1:3">
+      <c r="B122" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="B92" t="s">
+    <row r="123" spans="1:3">
+      <c r="B123" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="B93" t="s">
+    <row r="124" spans="1:3">
+      <c r="B124" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="B94" t="s">
+    <row r="125" spans="1:3">
+      <c r="B125" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="B95" t="s">
+    <row r="126" spans="1:3">
+      <c r="B126" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="C96" t="s">
+    <row r="127" spans="1:3">
+      <c r="C127" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="14" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="15" t="s">
+    <row r="136" spans="2:2">
+      <c r="B136" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="14" t="s">
+    <row r="137" spans="2:2">
+      <c r="B137" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="14" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="13" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="13" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="13" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="15"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="14" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" s="15"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="15" t="s">
+    <row r="144" spans="2:2">
+      <c r="B144" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="14" t="s">
+    <row r="145" spans="2:2">
+      <c r="B145" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="14" t="s">
+    <row r="146" spans="2:2">
+      <c r="B146" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="13" t="s">
+    <row r="147" spans="2:2">
+      <c r="B147" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="13" t="s">
+    <row r="148" spans="2:2">
+      <c r="B148" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="13" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="15"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="14" t="s">
+    <row r="150" spans="2:2">
+      <c r="B150" s="15"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="15" t="s">
+    <row r="152" spans="2:2">
+      <c r="B152" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="14" t="s">
+    <row r="153" spans="2:2">
+      <c r="B153" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="14" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="13" t="s">
+    <row r="155" spans="2:2">
+      <c r="B155" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="13" t="s">
+    <row r="156" spans="2:2">
+      <c r="B156" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="13" t="s">
+    <row r="157" spans="2:2">
+      <c r="B157" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="15"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="14" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" s="15"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="B129" s="15" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="B130" s="14" t="s">
+    <row r="161" spans="1:3">
+      <c r="B161" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="B131" s="14" t="s">
+    <row r="162" spans="1:3">
+      <c r="B162" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="B132" s="13" t="s">
+    <row r="163" spans="1:3">
+      <c r="B163" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="B133" s="13" t="s">
+    <row r="164" spans="1:3">
+      <c r="B164" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="B134" s="13" t="s">
+    <row r="165" spans="1:3">
+      <c r="B165" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="16" customFormat="1">
-      <c r="A137" s="16" t="s">
+    <row r="168" spans="1:3" s="16" customFormat="1">
+      <c r="A168" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="B138" t="s">
+    <row r="169" spans="1:3">
+      <c r="B169" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="B139" t="s">
+    <row r="170" spans="1:3">
+      <c r="B170" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="C140" t="s">
+    <row r="171" spans="1:3">
+      <c r="C171" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="C141" t="s">
+    <row r="172" spans="1:3">
+      <c r="C172" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="C142" t="s">
+    <row r="173" spans="1:3">
+      <c r="C173" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="B143" t="s">
+    <row r="174" spans="1:3">
+      <c r="B174" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="C144" t="s">
+    <row r="175" spans="1:3">
+      <c r="C175" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="16" customFormat="1">
-      <c r="A146" s="16" t="s">
+    <row r="177" spans="1:3" s="16" customFormat="1">
+      <c r="A177" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="B147" t="s">
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="C148" t="s">
+    <row r="179" spans="1:3">
+      <c r="C179" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="B150" t="s">
+    <row r="181" spans="1:3">
+      <c r="B181" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="C151" t="s">
+    <row r="182" spans="1:3">
+      <c r="C182" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="C152" t="s">
+    <row r="183" spans="1:3">
+      <c r="C183" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="B154" t="s">
+    <row r="185" spans="1:3">
+      <c r="B185" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="C155" t="s">
+    <row r="186" spans="1:3">
+      <c r="C186" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="C156" t="s">
+    <row r="187" spans="1:3">
+      <c r="C187" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:3" s="23" customFormat="1">
-      <c r="A158" s="24" t="s">
+    <row r="189" spans="1:3" s="23" customFormat="1">
+      <c r="A189" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="B159" t="s">
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="B160" t="s">
+    <row r="191" spans="1:3">
+      <c r="B191" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="B161" t="s">
+    <row r="192" spans="1:3">
+      <c r="B192" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="B162" t="s">
+    <row r="193" spans="1:3">
+      <c r="B193" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="B163" t="s">
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="B164" t="s">
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="C165" t="s">
+    <row r="196" spans="1:3">
+      <c r="C196" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="B167" t="s">
+    <row r="198" spans="1:3">
+      <c r="B198" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="B168" t="s">
+    <row r="199" spans="1:3">
+      <c r="B199" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="C169" s="25" t="s">
+    <row r="200" spans="1:3">
+      <c r="C200" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="B171" t="s">
+    <row r="202" spans="1:3">
+      <c r="B202" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="B172" t="s">
+    <row r="203" spans="1:3">
+      <c r="B203" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="16" customFormat="1">
-      <c r="A175" s="16" t="s">
+    <row r="206" spans="1:3" s="16" customFormat="1">
+      <c r="A206" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="B176" t="s">
+    <row r="207" spans="1:3">
+      <c r="B207" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
-      <c r="B177" t="s">
+    <row r="208" spans="1:3">
+      <c r="B208" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="2:4">
-      <c r="B178" t="s">
+    <row r="209" spans="2:4">
+      <c r="B209" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="2:4">
-      <c r="B179" t="s">
+    <row r="210" spans="2:4">
+      <c r="B210" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="2:4">
-      <c r="B180" t="s">
+    <row r="211" spans="2:4">
+      <c r="B211" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="2:4">
-      <c r="B182" t="s">
+    <row r="213" spans="2:4">
+      <c r="B213" t="s">
         <v>182</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D213" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="2:4" s="16" customFormat="1"/>
-    <row r="186" spans="2:4">
-      <c r="B186" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4">
-      <c r="B188" t="s">
-        <v>191</v>
-      </c>
-    </row>
+    <row r="216" spans="2:4" s="16" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D5098-FC4E-4FA5-9BBB-6940E831F2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642335F-E0C1-499D-B56F-45BD699EEA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="210">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -2377,104 +2377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇修正メモ</t>
-    <rPh sb="1" eb="3">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤーステートのジャンプを三つに分ける</t>
-    <rPh sb="16" eb="17">
-      <t>ミッ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→高いところから降りたときに空中ステートに遷移させたいから</t>
-    <rPh sb="1" eb="2">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・マップの床との当たり判定を調整</t>
-    <rPh sb="5" eb="6">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→キャラクターの中心座標で見ているのをちゃんとカプセルにしたい</t>
-    <rPh sb="8" eb="12">
-      <t>チュウシンザヒョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内藤先生に聞きたいこと</t>
-    <rPh sb="0" eb="4">
-      <t>ナイトウセンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・トラップの種類が最大10個想定だが、ゲームシーンで使用する罠選択の仕様はいるか</t>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ワナセンタク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージごとに変える情報</t>
     <rPh sb="7" eb="8">
       <t>カ</t>
@@ -2543,99 +2445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・強化項目にプレイヤー関連の項目を増やすのはありか</t>
-    <rPh sb="1" eb="3">
-      <t>キョウカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇考えることメモ</t>
-    <rPh sb="1" eb="2">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・敵の移動ルートの決め方(群れ機能を利用するか、も)</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・罠を壁に設置する処理</t>
-    <rPh sb="1" eb="2">
-      <t>ワナ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クロスボウの弱体化案(撃てる間隔を大きくする、リロードをしないと撃てないようにする等)</t>
-    <rPh sb="7" eb="11">
-      <t>ジャクタイカアン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動について</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -2693,6 +2502,369 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇修正</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの弾の拡散</t>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの落下状態</t>
+    <rPh sb="7" eb="9">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵の向き変更時の回転</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヘンコウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵のモデル変更</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーが壁に密着時に弾が上方向に飛ぶやつ</t>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミッチャクジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ウエホウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・弾がステージを時々貫通して飛んで行っている</t>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>トキドキカンツウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーがジャンプ中に敵がめり込んできてプレイヤーが操作不能になるやつ</t>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ソウサフノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーのクリアアニメーション長すぎ</t>
+    <rPh sb="17" eb="18">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→学校にしかBlenderとデータがないため冬休み中に学校に行って9日の提出前に変更する</t>
+    <rPh sb="1" eb="3">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フユヤス</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>テイシュツマエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トラップ設置をプレイヤーからのレイキャストじゃなくて、カメラからのレイキャストでする</t>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵がスポーンする場所をステージモデルに追加する</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵の追加</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠の追加</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スコア計算処理</t>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ミニマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵ののけぞり処理</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの被ダメージアニメーション</t>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤー死亡時にクリスタルHPを減らす処理</t>
+    <rPh sb="6" eb="9">
+      <t>シボウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バランス調整</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵の頭上にHPバーを表</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ズジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トラップが設置できない場合の反応</t>
+    <rPh sb="6" eb="8">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→お金が足りないときは左下の数字を赤くして揺らすなど</t>
+    <rPh sb="2" eb="3">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠仮設置処理</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠の攻撃範囲描画</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="9">
+      <t>コウゲキハンイビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所的に罠が設置できないときは仮罠設置の描画を赤くしたり(できるか知らん)など</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ワナセッチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→古川先生のレビューからの意見。OrcsMustDie!3が参考例になると思う。</t>
+    <rPh sb="1" eb="5">
+      <t>フルカワセンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>サンコウレイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠の設置可能</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>セッチカノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9932,7 +10104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
@@ -10180,22 +10352,22 @@
     </row>
     <row r="90" spans="1:2" s="17" customFormat="1">
       <c r="A90" s="17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="B92" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="B94" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="16" customFormat="1">
@@ -10544,40 +10716,40 @@
     </row>
     <row r="206" spans="1:3" s="16" customFormat="1">
       <c r="A206" s="16" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="B207" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="B208" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D213" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216" spans="2:4" s="16" customFormat="1"/>
@@ -10593,82 +10765,163 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:3" s="16" customFormat="1">
       <c r="B2" s="16" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="C4" t="s">
-        <v>170</v>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="C7" t="s">
-        <v>172</v>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" s="16" customFormat="1">
-      <c r="B11" s="16" t="s">
-        <v>185</v>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>186</v>
+      <c r="C12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="19.5" customHeight="1">
       <c r="B15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" s="16" customFormat="1">
-      <c r="B20" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="19.5" customHeight="1"/>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642335F-E0C1-499D-B56F-45BD699EEA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C0DBC-492E-4BE3-ACD3-377FA4AA9E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16890" yWindow="285" windowWidth="21420" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="231">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -2867,6 +2867,73 @@
       <t>セッチカノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠について</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイク(床・壁)</t>
+  </si>
+  <si>
+    <t>Obstacle-16</t>
+  </si>
+  <si>
+    <t>カッター(床)</t>
+  </si>
+  <si>
+    <t>Obstacle-7</t>
+  </si>
+  <si>
+    <t>ハンマー(床)</t>
+  </si>
+  <si>
+    <t>Obstacle-13</t>
+  </si>
+  <si>
+    <t>火炎放射(床)</t>
+  </si>
+  <si>
+    <t>Obstacle-19</t>
+  </si>
+  <si>
+    <t>妨害(床)</t>
+  </si>
+  <si>
+    <t>Obstacle-12</t>
+  </si>
+  <si>
+    <t>釘バット(壁)</t>
+  </si>
+  <si>
+    <t>Obstacle-18</t>
+  </si>
+  <si>
+    <t>かかし(床)</t>
+  </si>
+  <si>
+    <t>Obstacle-20</t>
+  </si>
+  <si>
+    <t>オートタレット(床)</t>
+  </si>
+  <si>
+    <t>Obstacle-22</t>
+  </si>
+  <si>
+    <t>振り子(天井)</t>
+  </si>
+  <si>
+    <t>Obstacle-2</t>
+  </si>
+  <si>
+    <t>タル爆弾(床)</t>
+  </si>
+  <si>
+    <t>Obstacle-4</t>
   </si>
 </sst>
 </file>
@@ -10104,8 +10171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10368,6 +10435,91 @@
     <row r="94" spans="1:2">
       <c r="B94" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="16" customFormat="1">
+      <c r="A98" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" t="s">
+        <v>223</v>
+      </c>
+      <c r="E106" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" t="s">
+        <v>227</v>
+      </c>
+      <c r="E108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="B109" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="16" customFormat="1">
@@ -10767,8 +10919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C0DBC-492E-4BE3-ACD3-377FA4AA9E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D1618-83A1-4956-B820-9065FE701417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16890" yWindow="285" windowWidth="21420" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="246">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -2934,6 +2934,141 @@
   </si>
   <si>
     <t>Obstacle-4</t>
+  </si>
+  <si>
+    <t>スコア計算について</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算するために必要な情報</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クリアタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの攻撃で倒した敵の数</t>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠の攻撃で倒した敵の数</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・残りのクリスタルHP</t>
+    <rPh sb="1" eb="2">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大コンボ数</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本家は</t>
+    <rPh sb="0" eb="2">
+      <t>ホンケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの攻撃で倒した敵の数 * 50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠の攻撃で倒した敵の数 * 100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標クリアタイム - クリアタイム</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りのクリスタルHP * 100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大コンボ数の計算はよくわからない</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で計算されている</t>
+    <rPh sb="1" eb="3">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大コンボ数 * 50　でいったん計算してみよう</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -10169,10 +10304,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O216"/>
+  <dimension ref="A1:O231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10881,22 +11016,22 @@
         <v>170</v>
       </c>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="1:4">
       <c r="B209" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="1:4">
       <c r="B210" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="1:4">
       <c r="B211" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="213" spans="2:4">
+    <row r="213" spans="1:4">
       <c r="B213" t="s">
         <v>174</v>
       </c>
@@ -10904,7 +11039,81 @@
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="2:4" s="16" customFormat="1"/>
+    <row r="216" spans="1:4" s="16" customFormat="1">
+      <c r="A216" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="B217" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="B218" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="B219" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="B220" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="B221" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="B222" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
+      <c r="B225" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6">
+      <c r="B226" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="F230" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D1618-83A1-4956-B820-9065FE701417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2442EE0-0550-4650-B78D-1BB9DE2582C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -10306,7 +10306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+    <sheetView topLeftCell="A205" workbookViewId="0">
       <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
@@ -11128,8 +11128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2442EE0-0550-4650-B78D-1BB9DE2582C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF474CF-9BC2-426B-88AC-0937796EDDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="251">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3067,6 +3067,86 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025/1/10　内藤先生の話</t>
+    <rPh sb="10" eb="14">
+      <t>ナイトウセンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームの基盤はできてそうだから規模と見た目の向上</t>
+    <rPh sb="5" eb="7">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マップの見た目が一色なのがよくない気がする</t>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッショク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば壁から外が見えてスカイボックスが見えたり全体的に暗くするなら松明とかでライティングをちゃんとする</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>タイマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベルデザインは難しくするぐらいがちょうどいいかも</t>
+    <rPh sb="9" eb="10">
+      <t>ムズカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11126,10 +11206,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="B2:C33"/>
+  <dimension ref="B2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11280,9 +11360,34 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="16" customFormat="1">
+      <c r="B36" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF474CF-9BC2-426B-88AC-0937796EDDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908C988-B6D4-47A7-B00D-835D332E1021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="260">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3147,6 +3147,72 @@
     <t>・レベルデザインは難しくするぐらいがちょうどいいかも</t>
     <rPh sb="9" eb="10">
       <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に攻撃してきたオブジェクト名の配列を持たせる</t>
+  </si>
+  <si>
+    <t>すべての敵のその配列のsizeの合計をコンボ数にできると思った。</t>
+  </si>
+  <si>
+    <t>(コンボの受付時間が終わるとすべての敵のその配列をclearすることでリセットもできる)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が倒されて削除されると、その配列のサイズが0になってしまうため、コンボ数が減ってしまう。</t>
+  </si>
+  <si>
+    <t>連続キル</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボの仕様を変える</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ごとにコンボを作り、死亡時のオブジェクト名の配列の長さ分ボーナスポイントを追加する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シボウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10384,10 +10450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O231"/>
+  <dimension ref="A1:O248"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11159,39 +11225,84 @@
         <v>238</v>
       </c>
     </row>
-    <row r="225" spans="2:6">
+    <row r="225" spans="1:6">
       <c r="B225" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="226" spans="2:6">
+    <row r="226" spans="1:6">
       <c r="B226" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="227" spans="2:6">
+    <row r="227" spans="1:6">
       <c r="B227" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="228" spans="2:6">
+    <row r="228" spans="1:6">
       <c r="B228" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="229" spans="2:6">
+    <row r="229" spans="1:6">
       <c r="B229" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="230" spans="2:6">
+    <row r="230" spans="1:6">
       <c r="F230" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="231" spans="2:6">
+    <row r="231" spans="1:6">
       <c r="B231" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="16" customFormat="1">
+      <c r="A233" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="B234" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="B235" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="B236" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="B237" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="B238" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="B240" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="C241" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" s="16" customFormat="1">
+      <c r="A248" s="20" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -11208,7 +11319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="B2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908C988-B6D4-47A7-B00D-835D332E1021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B384886-EDA3-49A6-BDA1-2C692BE89F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="262">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3213,6 +3213,35 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮コンボを実装した</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できたら倒した敵の近くに2Dの〇コンボ!画像を1.2秒表示したい</t>
+    <rPh sb="4" eb="5">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ビョウヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3467,7 +3496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3534,6 +3563,7 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -10453,10 +10483,13 @@
   <dimension ref="A1:O248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="16" customFormat="1">
       <c r="A1" s="20" t="s">
@@ -11298,6 +11331,21 @@
     <row r="241" spans="1:3">
       <c r="C241" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="B243" s="28">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="B244" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="B245" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="16" customFormat="1">

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B384886-EDA3-49A6-BDA1-2C692BE89F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956CCC3-55A1-4008-B1B2-70340BE850E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="271">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3242,6 +3242,105 @@
     </rPh>
     <rPh sb="26" eb="29">
       <t>ビョウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今週すること</t>
+    <rPh sb="0" eb="2">
+      <t>コンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠の追加(ハンマー、スロウトラップ)</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵がポーションを確率でドロップするようにする</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・連続キルの仕様を追加する</t>
+    <rPh sb="1" eb="3">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フォントを使った文字の描画クラスを作る</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間があったらすること</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・本家のどのステージをパクるか考える</t>
+    <rPh sb="1" eb="3">
+      <t>ホンケ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・松明のライティングシェーダーを試してみる</t>
+    <rPh sb="1" eb="3">
+      <t>タイマツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠の攻撃範囲を設置時に分かるようにしたい</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウゲキハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッチジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3496,7 +3595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3557,13 +3656,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9809,7 +9909,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -9817,7 +9917,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -10482,8 +10582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11334,7 +11434,7 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="B243" s="28">
+      <c r="B243" s="26">
         <v>45671</v>
       </c>
     </row>
@@ -11365,13 +11465,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="B2:C40"/>
+  <dimension ref="A2:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3" s="16" customFormat="1">
       <c r="B2" s="16" t="s">
@@ -11519,34 +11622,84 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="1:3">
       <c r="B33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="2:3" s="16" customFormat="1">
+    <row r="36" spans="1:3" s="16" customFormat="1">
       <c r="B36" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3">
       <c r="B37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="1:3">
       <c r="B38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="1:3">
       <c r="C39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:3">
       <c r="B40" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="16" customFormat="1">
+      <c r="A44" s="29">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956CCC3-55A1-4008-B1B2-70340BE850E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE0E18-0C66-4DF9-808E-A6C1ECD4D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="273">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3341,6 +3341,32 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンボの仕様を追加する</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・群れクラスを有効活用して敵を生成する</t>
+    <rPh sb="1" eb="2">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ユウコウカツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3657,13 +3683,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9909,7 +9935,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -9917,7 +9943,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -11465,10 +11491,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:C54"/>
+  <dimension ref="A2:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11653,7 +11679,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" s="16" customFormat="1">
-      <c r="A44" s="29">
+      <c r="A44" s="27">
         <v>45671</v>
       </c>
     </row>
@@ -11674,31 +11700,41 @@
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>268</v>
       </c>
     </row>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE0E18-0C66-4DF9-808E-A6C1ECD4D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E54E22B-390E-435A-ADB5-CC61A06B0E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="274">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3368,6 +3368,10 @@
     <rPh sb="15" eb="17">
       <t>セイセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やったこと</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11491,10 +11495,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:C56"/>
+  <dimension ref="A2:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11648,79 +11652,81 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1">
+    <row r="36" spans="1:9" s="16" customFormat="1">
       <c r="B36" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:9">
       <c r="C39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="16" customFormat="1">
+    <row r="44" spans="1:9" s="16" customFormat="1">
       <c r="A44" s="27">
         <v>45671</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="I45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="I46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="I47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="I48" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="2:2">

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E54E22B-390E-435A-ADB5-CC61A06B0E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1161A-7268-4597-BA00-8204FEDA8C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11498,7 +11498,7 @@
   <dimension ref="A2:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I47" t="s">
         <v>265</v>
@@ -11713,33 +11713,31 @@
     </row>
     <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I48" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:9">
       <c r="B49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
+      <c r="I49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:9">
       <c r="B55" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:9">
       <c r="B56" t="s">
         <v>268</v>
       </c>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1161A-7268-4597-BA00-8204FEDA8C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B812A-DB1E-4257-9730-5C1596A3A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="277">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3372,6 +3372,36 @@
   </si>
   <si>
     <t>やったこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーのクリアアニメーションを変える</t>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの弾の拡散の実装</t>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各シーンのデザインを考える</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カンガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11495,10 +11525,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I56"/>
+  <dimension ref="A2:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11727,6 +11757,16 @@
         <v>264</v>
       </c>
     </row>
+    <row r="50" spans="2:9">
+      <c r="B50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" t="s">
+        <v>275</v>
+      </c>
+    </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
         <v>267</v>
@@ -11740,6 +11780,11 @@
     <row r="56" spans="2:9">
       <c r="B56" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B812A-DB1E-4257-9730-5C1596A3A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD84B5E8-23E7-470E-932C-D26A46F9DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="シーン遷移" sheetId="2" r:id="rId3"/>
     <sheet name="実装メモ" sheetId="3" r:id="rId4"/>
     <sheet name="あ" sheetId="4" r:id="rId5"/>
+    <sheet name="ライセンス" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="281">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3404,12 +3405,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>フォント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://flopdesign.booth.pm/items/1833993?registration=1</t>
+  </si>
+  <si>
+    <t>やさしさゴシックV2 - Bold</t>
+  </si>
+  <si>
+    <t>商用・非商用問わず使用可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3463,6 +3478,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5A5A60"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5A5A60"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3655,7 +3683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3724,6 +3752,8 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -11527,7 +11557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -11792,4 +11822,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EAA23-52DD-42F6-8BCA-B5D4CB4AB1F5}">
+  <dimension ref="B2:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD84B5E8-23E7-470E-932C-D26A46F9DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C0C6BF-24AF-40B5-8615-2027E596361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="-12750" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="326">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3419,12 +3419,302 @@
     <t>商用・非商用問わず使用可能</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲を見渡して状況を把握する重要性を伝える。</t>
+  </si>
+  <si>
+    <t>必要に応じて敵の攻撃を回避する方法。</t>
+  </si>
+  <si>
+    <t>通常攻撃で敵を狙い、ヘッドショットを狙う練習をさせる。</t>
+  </si>
+  <si>
+    <t>罠の種類と設置方法</t>
+  </si>
+  <si>
+    <t>スパイクトラップやArrow Wallなど、基本的な罠の使い方を教える。</t>
+  </si>
+  <si>
+    <t>罠コスト</t>
+  </si>
+  <si>
+    <t>基本オーク</t>
+  </si>
+  <si>
+    <t>敵の出現タイミング</t>
+  </si>
+  <si>
+    <t>ウェーブの合間に罠を準備する重要性を伝える。</t>
+  </si>
+  <si>
+    <t>ウェーブ数の確認</t>
+  </si>
+  <si>
+    <t>1. 基本操作の説明</t>
+  </si>
+  <si>
+    <t>2. 攻撃の基本</t>
+  </si>
+  <si>
+    <t>3. 罠の設置と使用</t>
+  </si>
+  <si>
+    <t>4. 敵の種類と特徴</t>
+  </si>
+  <si>
+    <t>プレイヤー自身のヘルス管理</t>
+  </si>
+  <si>
+    <t>ヘルスポーションの使い方と回復方法を教える。</t>
+  </si>
+  <si>
+    <t>コンボの仕組み</t>
+  </si>
+  <si>
+    <t>簡単な敵ウェーブを発生させ、プレイヤーが自ら罠を設置して敵を倒す実践練習を取り入れる。</t>
+  </si>
+  <si>
+    <t>チュートリアル終了時に「次に進む準備ができた！」と感じさせる達成感を与える。</t>
+  </si>
+  <si>
+    <r>
+      <t>キャラクターの移動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（コントローラーのスティック）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動して敵の攻撃を避ける方法を教える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>視点の操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（右スティック）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ジャンプ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（スペースキーなど）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>クロスボウの使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（通常攻撃）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置に必要なコストや、クールダウンについて説明。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠を設置するにはコインが必要であることを説明。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も頻繁に出現する敵の倒し方を説明。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒すと罠ポイントを取得できることも説明。</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. ウェーブの仕組み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ウェーブ数や現在のウェーブ数を確認する方法。</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. プレイヤーの生存と失敗条件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフプール（クリスタル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵がクリスタルに到達するとライフが減少し、ゼロになるとゲームオーバーになることを説明。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが死亡するとクリスタルを消費して復活、5以下ならそのままゲームオーバーになることも説明。</t>
+    <rPh sb="6" eb="8">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルストリークの仕組み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠や武器を組み合わせて連続ダメージを与えることで罠ポイントが多く得られることを説明。</t>
+    <rPh sb="24" eb="25">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短時間で敵をたくさん倒すとさらに多くのポイントを得られることを説明。</t>
+    <rPh sb="0" eb="3">
+      <t>タンジカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. コンボと連続キル</t>
+    <rPh sb="7" eb="9">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9. 実戦形式の練習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8. スコアについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアの計算について</t>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアタイムやプレイによってスコアが計算されることを説明。</t>
+    <rPh sb="18" eb="20">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出したスコアは高スコアだとオンラインランキングに残る(はず)のことを説明。</t>
+    <rPh sb="0" eb="1">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3491,6 +3781,15 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3683,7 +3982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3746,14 +4045,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9999,7 +10304,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -10007,7 +10312,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -11555,10 +11860,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I57"/>
+  <dimension ref="A2:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11779,7 +12084,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
         <v>197</v>
       </c>
@@ -11787,34 +12092,276 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="16" customFormat="1">
+      <c r="A60" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="22.5">
+      <c r="B61" s="32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="C63" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="22.5">
+      <c r="B69" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="2:3" ht="22.5">
+      <c r="B73" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="33"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" s="33"/>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="22.5">
+      <c r="B80" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="33"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="2:3" ht="22.5">
+      <c r="B85" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="C87" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="C89" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="C90" s="13"/>
+    </row>
+    <row r="91" spans="2:3" ht="22.5">
+      <c r="B91" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="C93" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="C95" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="C96" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="22.5">
+      <c r="B98" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="C100" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="C102" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="14"/>
+    </row>
+    <row r="104" spans="2:3" ht="22.5">
+      <c r="B104" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="C106" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="C108" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="22.5">
+      <c r="B110" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="15"/>
+      <c r="C111" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="C112" s="15" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -11828,7 +12375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EAA23-52DD-42F6-8BCA-B5D4CB4AB1F5}">
   <dimension ref="B2:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -11843,18 +12390,19 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>279</v>
       </c>
       <c r="D3" t="s">
         <v>278</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="29" t="s">
         <v>280</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C0C6BF-24AF-40B5-8615-2027E596361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76AF2D-66BF-422C-9A64-9EFE8883893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4050" yWindow="-12750" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="330">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3173,13 +3173,6 @@
     <t>敵が倒されて削除されると、その配列のサイズが0になってしまうため、コンボ数が減ってしまう。</t>
   </si>
   <si>
-    <t>連続キル</t>
-    <rPh sb="0" eb="2">
-      <t>レンゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンボの仕様を変える</t>
     <rPh sb="4" eb="6">
       <t>シヨウ</t>
@@ -3603,25 +3596,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーが死亡するとクリスタルを消費して復活、5以下ならそのままゲームオーバーになることも説明。</t>
-    <rPh sb="6" eb="8">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>フッカツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キルストリークの仕組み</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3665,14 +3639,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9. 実戦形式の練習</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8. スコアについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スコアの計算について</t>
     <rPh sb="4" eb="6">
       <t>ケイサン</t>
@@ -3706,6 +3672,92 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが死亡するとクリスタルのライフを5消費して復活、5以下ならそのままゲームオーバーになることも説明。</t>
+    <rPh sb="6" eb="8">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9. スコアについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.ミニマップについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップUIの見方</t>
+    <rPh sb="8" eb="10">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップの仕様について説明。</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10. 実戦形式の練習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵ののけぞり処理を実装するために3Dモデルを変更する必要がある</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続で攻撃すると弾が拡散することも伝える。</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクサン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4047,17 +4099,17 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10304,7 +10356,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -10312,7 +10364,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="31"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -10764,7 +10816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E773784E-698B-46E4-B9BF-6422FEF0899F}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
@@ -10975,10 +11027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O248"/>
+  <dimension ref="A1:O305"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11820,12 +11872,12 @@
     </row>
     <row r="240" spans="1:6">
       <c r="B240" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="C241" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -11835,17 +11887,278 @@
     </row>
     <row r="244" spans="1:3">
       <c r="B244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="B245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="16" customFormat="1">
       <c r="A248" s="20" t="s">
-        <v>257</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="22.5">
+      <c r="B249" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="B250" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="C251" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="B252" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="C253" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="B254" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="C255" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="22.5">
+      <c r="B257" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="C259" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="14"/>
+      <c r="C260" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="14"/>
+    </row>
+    <row r="262" spans="2:3" ht="22.5">
+      <c r="B262" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C262" s="31"/>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C263" s="31"/>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="C264" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="C265" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="C267" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="22.5">
+      <c r="B269" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C269" s="31"/>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="C271" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272" s="14"/>
+      <c r="C272" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="C273" s="13"/>
+    </row>
+    <row r="274" spans="2:3" ht="22.5">
+      <c r="B274" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="C276" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="C278" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="C279" s="13"/>
+    </row>
+    <row r="280" spans="2:3" ht="22.5">
+      <c r="B280" s="30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="B281" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="C282" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="B283" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="C284" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="C285" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" ht="22.5">
+      <c r="B287" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="C289" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="C291" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="C292" s="13"/>
+    </row>
+    <row r="293" spans="2:3" ht="22.5">
+      <c r="B293" s="30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="B294" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="C295" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" s="14"/>
+    </row>
+    <row r="297" spans="2:3" ht="22.5">
+      <c r="B297" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="C299" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="C301" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" ht="22.5">
+      <c r="B303" s="30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" s="15"/>
+      <c r="C304" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" s="15" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -11860,10 +12173,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I112"/>
+  <dimension ref="A2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12054,314 +12367,72 @@
     </row>
     <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I48" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="I49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="B50" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="I50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="B54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="B56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="16" customFormat="1">
-      <c r="A60" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="22.5">
-      <c r="B61" s="32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="B62" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="C63" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="C65" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="C67" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="22.5">
-      <c r="B69" s="32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="C71" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="14"/>
-    </row>
-    <row r="73" spans="2:3" ht="22.5">
-      <c r="B73" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C73" s="33"/>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C74" s="33"/>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="C75" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="C76" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="C78" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" ht="22.5">
-      <c r="B80" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80" s="33"/>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="C82" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="14"/>
-      <c r="C83" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="C84" s="13"/>
-    </row>
-    <row r="85" spans="2:3" ht="22.5">
-      <c r="B85" s="32" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="C87" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="C89" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="C90" s="13"/>
-    </row>
-    <row r="91" spans="2:3" ht="22.5">
-      <c r="B91" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="C93" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="C95" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="C96" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" ht="22.5">
-      <c r="B98" s="32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="C100" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="C102" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="14"/>
-    </row>
-    <row r="104" spans="2:3" ht="22.5">
-      <c r="B104" s="32" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="C106" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="C108" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" ht="22.5">
-      <c r="B110" s="32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="15"/>
-      <c r="C111" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="C112" s="15" t="s">
-        <v>300</v>
+    <row r="58" spans="2:9">
+      <c r="B58" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -12386,18 +12457,18 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>279</v>
-      </c>
-      <c r="D3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76AF2D-66BF-422C-9A64-9EFE8883893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744EFF2E-46C2-4B36-AF45-2DA6FD2782EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="-12750" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="332">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3758,6 +3758,20 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・UIクラスを作る</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawUIクラスを作る</t>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11027,10 +11041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O305"/>
+  <dimension ref="A1:O307"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="G270" sqref="G270"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12156,9 +12170,14 @@
         <v>298</v>
       </c>
     </row>
-    <row r="305" spans="3:3">
+    <row r="305" spans="1:3">
       <c r="C305" s="15" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" s="16" customFormat="1">
+      <c r="A307" s="16" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -12175,8 +12194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12406,6 +12425,9 @@
       </c>
     </row>
     <row r="50" spans="2:9">
+      <c r="B50" t="s">
+        <v>330</v>
+      </c>
       <c r="I50" t="s">
         <v>265</v>
       </c>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744EFF2E-46C2-4B36-AF45-2DA6FD2782EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05131770-03E9-45D7-B7A9-31B8E7FD6D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="333">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3769,10 +3769,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DrawUIクラスを作る</t>
-    <rPh sb="10" eb="11">
-      <t>ツク</t>
-    </rPh>
+    <t>現状各クラスでUIを描画しているが処理の順番のせいでオブジェクトの後ろにUIが描画されてしまっているため、Drawの一番最後にまとめてUIを描画する</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンジョウカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>イチバンサイゴ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawUIクラス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11041,10 +11066,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O307"/>
+  <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12177,6 +12202,11 @@
     </row>
     <row r="307" spans="1:3" s="16" customFormat="1">
       <c r="A307" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="B308" t="s">
         <v>331</v>
       </c>
     </row>
@@ -12194,8 +12224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12418,18 +12448,20 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="I49" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" t="s">
-        <v>330</v>
-      </c>
       <c r="I50" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="I51" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="2:9">

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05131770-03E9-45D7-B7A9-31B8E7FD6D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B89131-773A-421D-9E44-96F48A02CAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="335">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3798,6 +3798,23 @@
   </si>
   <si>
     <t>DrawUIクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠の回収</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウェーブクリア時にボーナスポイント</t>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12222,10 +12239,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I58"/>
+  <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12432,7 +12449,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I47" t="s">
         <v>264</v>
@@ -12440,7 +12457,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="I48" t="s">
         <v>271</v>
@@ -12448,13 +12465,16 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I49" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="50" spans="2:9">
+      <c r="B50" t="s">
+        <v>334</v>
+      </c>
       <c r="I50" t="s">
         <v>265</v>
       </c>
@@ -12487,6 +12507,11 @@
     <row r="58" spans="2:9">
       <c r="B58" t="s">
         <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B89131-773A-421D-9E44-96F48A02CAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D8451D-1C08-4427-9C30-B57C4BAEF0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12242,7 +12242,7 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+      <selection activeCell="J54" activeCellId="1" sqref="I52 J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12472,9 +12472,6 @@
       </c>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" t="s">
-        <v>334</v>
-      </c>
       <c r="I50" t="s">
         <v>265</v>
       </c>
@@ -12482,6 +12479,11 @@
     <row r="51" spans="2:9">
       <c r="I51" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="I52" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="2:9">

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D8451D-1C08-4427-9C30-B57C4BAEF0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2967CFDE-E740-4272-A2CD-0B8BF510199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11085,7 +11085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
+    <sheetView topLeftCell="A262" workbookViewId="0">
       <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
@@ -12242,7 +12242,7 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J54" activeCellId="1" sqref="I52 J54"/>
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2967CFDE-E740-4272-A2CD-0B8BF510199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B11A88-E407-40C5-A984-2A74B7251D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3389,16 +3389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・各シーンのデザインを考える</t>
-    <rPh sb="1" eb="2">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォント</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3814,6 +3804,19 @@
     <t>・ウェーブクリア時にボーナスポイント</t>
     <rPh sb="8" eb="9">
       <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各シーンのデザインを考える&amp;実装</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11953,63 +11956,63 @@
     </row>
     <row r="248" spans="1:3" s="16" customFormat="1">
       <c r="A248" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="22.5">
       <c r="B249" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="B250" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="C251" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="B252" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="C253" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="B254" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="C255" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="2:3" ht="22.5">
       <c r="B257" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="C259" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="14"/>
       <c r="C260" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261" spans="2:3">
@@ -12017,56 +12020,56 @@
     </row>
     <row r="262" spans="2:3" ht="22.5">
       <c r="B262" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C262" s="31"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C263" s="31"/>
     </row>
     <row r="264" spans="2:3">
       <c r="C264" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="265" spans="2:3">
       <c r="C265" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="2:3">
       <c r="C267" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="269" spans="2:3" ht="22.5">
       <c r="B269" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C269" s="31"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="2:3">
       <c r="C271" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="14"/>
       <c r="C272" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="273" spans="2:3">
@@ -12074,27 +12077,27 @@
     </row>
     <row r="274" spans="2:3" ht="22.5">
       <c r="B274" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275" spans="2:3">
       <c r="B275" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="2:3">
       <c r="C276" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="2:3">
       <c r="B277" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="2:3">
       <c r="C278" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="279" spans="2:3">
@@ -12102,57 +12105,57 @@
     </row>
     <row r="280" spans="2:3" ht="22.5">
       <c r="B280" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="281" spans="2:3">
       <c r="B281" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="2:3">
       <c r="C282" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="283" spans="2:3">
       <c r="B283" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="284" spans="2:3">
       <c r="C284" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" spans="2:3">
       <c r="C285" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="287" spans="2:3" ht="22.5">
       <c r="B287" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="2:3">
       <c r="B288" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="2:3">
       <c r="C289" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="2:3">
       <c r="B290" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="2:3">
       <c r="C291" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" spans="2:3">
@@ -12160,17 +12163,17 @@
     </row>
     <row r="293" spans="2:3" ht="22.5">
       <c r="B293" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="294" spans="2:3">
       <c r="B294" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="295" spans="2:3">
       <c r="C295" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296" spans="2:3">
@@ -12178,53 +12181,53 @@
     </row>
     <row r="297" spans="2:3" ht="22.5">
       <c r="B297" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="2:3">
       <c r="B298" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299" spans="2:3">
       <c r="C299" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="300" spans="2:3">
       <c r="B300" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="301" spans="2:3">
       <c r="C301" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="303" spans="2:3" ht="22.5">
       <c r="B303" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="304" spans="2:3">
       <c r="B304" s="15"/>
       <c r="C304" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="C305" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:3" s="16" customFormat="1">
       <c r="A307" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="B308" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -12241,8 +12244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12441,7 +12444,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="I46" t="s">
         <v>270</v>
@@ -12457,7 +12460,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I48" t="s">
         <v>271</v>
@@ -12465,7 +12468,7 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I49" t="s">
         <v>263</v>
@@ -12483,7 +12486,7 @@
     </row>
     <row r="52" spans="2:9">
       <c r="I52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -12501,14 +12504,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" t="s">
-        <v>275</v>
-      </c>
-    </row>
     <row r="58" spans="2:9">
       <c r="B58" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -12538,18 +12541,18 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>278</v>
-      </c>
-      <c r="D3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B11A88-E407-40C5-A984-2A74B7251D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028ECE41-82C5-4611-96C2-F9A37A6C9AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="-14625" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -12244,8 +12244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12467,9 +12467,6 @@
       </c>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" t="s">
-        <v>332</v>
-      </c>
       <c r="I49" t="s">
         <v>263</v>
       </c>
@@ -12487,6 +12484,11 @@
     <row r="52" spans="2:9">
       <c r="I52" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="I53" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="2:9">

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028ECE41-82C5-4611-96C2-F9A37A6C9AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889B93DF-8062-4EDA-AFD1-7DE6137D63FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="-14625" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="-12900" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="339">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3817,6 +3817,40 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇各シーンのUI</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇コンボ、連続キルの2DUI</t>
+    <rPh sb="5" eb="7">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇エフェクト、サウンド入れ</t>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ステージ、罠、敵の追加</t>
+    <rPh sb="6" eb="7">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12242,10 +12276,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I61"/>
+  <dimension ref="A2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12466,59 +12500,89 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="1:9">
       <c r="I49" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="1:9">
       <c r="I50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="1:9">
       <c r="I51" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="1:9">
       <c r="I52" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="1:9">
       <c r="I53" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="16" customFormat="1">
+      <c r="A63" s="27">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889B93DF-8062-4EDA-AFD1-7DE6137D63FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E02A3-3021-45E6-A8F0-70FA88558BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="-12900" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="339">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3821,28 +3821,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇各シーンのUI</t>
+    <t>・各シーンのUI</t>
     <rPh sb="1" eb="2">
       <t>カク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇コンボ、連続キルの2DUI</t>
+    <t>・コンボ、連続キルの2DUI</t>
     <rPh sb="5" eb="7">
       <t>レンゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇エフェクト、サウンド入れ</t>
+    <t>・エフェクト、サウンド入れ</t>
     <rPh sb="11" eb="12">
       <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇ステージ、罠、敵の追加</t>
+    <t>・ステージ、罠、敵の追加</t>
     <rPh sb="6" eb="7">
       <t>ワナ</t>
     </rPh>
@@ -12278,8 +12278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12564,23 +12564,29 @@
       <c r="B64" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="I64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="I65" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:9">
       <c r="B67" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:9">
       <c r="B69" t="s">
         <v>338</v>
       </c>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E02A3-3021-45E6-A8F0-70FA88558BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D793A7-6C87-42E6-9188-651B686F5A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="-12900" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="3030" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="341">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3828,29 +3828,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・コンボ、連続キルの2DUI</t>
+    <t>・コンボ、連続キルの2DエフェクトUI</t>
     <rPh sb="5" eb="7">
       <t>レンゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・エフェクト、サウンド入れ</t>
+    <t>・3Dエフェクト、サウンド(bgm,se)入れ</t>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パクる元のステージを考える</t>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
     <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ステージ、罠、敵の追加</t>
-    <rPh sb="6" eb="7">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵(ランナー、タンク)の追加</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠(ハンマー、カッター、)</t>
+    <rPh sb="1" eb="2">
       <t>ワナ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12276,10 +12290,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I69"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12589,6 +12603,16 @@
     <row r="69" spans="2:9">
       <c r="B69" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D793A7-6C87-42E6-9188-651B686F5A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C3812-BCBC-42AF-A472-9CB2E18058C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3030" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -12293,7 +12293,7 @@
   <dimension ref="A2:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+      <selection activeCell="S69" sqref="S69:S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C3812-BCBC-42AF-A472-9CB2E18058C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC4F1D4-DAFB-447A-95F1-C6CC82C15678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14655" yWindow="2385" windowWidth="21420" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="349">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3865,6 +3865,104 @@
     <t>・罠(ハンマー、カッター、)</t>
     <rPh sb="1" eb="2">
       <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転に応じて攻撃方向を変える</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・罠を設置前に回転できるようにする</t>
+    <rPh sb="1" eb="2">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セッチマエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オプションシーンとポーズシーンの見た目、オプションシーンの実装</t>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リザルトシーンの見た目を考える</t>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チュートリアルの概要を考える</t>
+    <rPh sb="9" eb="11">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エフェクトとサウンドが何がいるかをリストアップ</t>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵のモデルの変更</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵ののけぞり処理を追加</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12290,10 +12388,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I71"/>
+  <dimension ref="A2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="S69" sqref="S69:S70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12613,6 +12711,46 @@
     <row r="71" spans="2:9">
       <c r="B71" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="C75" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC4F1D4-DAFB-447A-95F1-C6CC82C15678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660960E-E2F0-4156-90FA-1D178517E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14655" yWindow="2385" windowWidth="21420" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="374">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3759,38 +3759,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現状各クラスでUIを描画しているが処理の順番のせいでオブジェクトの後ろにUIが描画されてしまっているため、Drawの一番最後にまとめてUIを描画する</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンジョウカク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="58" eb="62">
-      <t>イチバンサイゴ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DrawUIクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・罠の回収</t>
     <rPh sb="1" eb="2">
       <t>ワナ</t>
@@ -3963,6 +3931,180 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの装飾</t>
+    <rPh sb="5" eb="7">
+      <t>ソウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇3Dモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇画像</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトシーンのUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションシーンのUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動音</t>
+    <rPh sb="0" eb="3">
+      <t>イドウオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの攻撃音</t>
+    <rPh sb="6" eb="9">
+      <t>コウゲキオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェーズ開始音</t>
+    <rPh sb="4" eb="7">
+      <t>カイシオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリスタル攻撃音</t>
+    <rPh sb="5" eb="8">
+      <t>コウゲキオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラップ設置/解除音</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カイジョオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラップの攻撃音</t>
+    <rPh sb="5" eb="8">
+      <t>コウゲキオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア音</t>
+    <rPh sb="3" eb="4">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー音</t>
+    <rPh sb="7" eb="8">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復音</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ音(着地音)</t>
+    <rPh sb="4" eb="5">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チャクチオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒット音</t>
+    <rPh sb="3" eb="4">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復活音</t>
+    <rPh sb="0" eb="3">
+      <t>フッカツオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラップ設置</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラップ解除</t>
+    <rPh sb="4" eb="6">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進入禁止エリア</t>
+    <rPh sb="0" eb="4">
+      <t>シンニュウキンシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11232,10 +11374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O308"/>
+  <dimension ref="A1:O336"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12367,13 +12509,138 @@
       </c>
     </row>
     <row r="307" spans="1:3" s="16" customFormat="1">
-      <c r="A307" s="16" t="s">
-        <v>331</v>
+      <c r="A307" s="20" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="B308" t="s">
-        <v>330</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="B309" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="B310" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="B311" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="B313" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="B314" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="B315" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="B317" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="B318" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="B319" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="B320" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -12391,7 +12658,7 @@
   <dimension ref="A2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12590,7 +12857,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I46" t="s">
         <v>270</v>
@@ -12629,12 +12896,12 @@
     </row>
     <row r="52" spans="1:9">
       <c r="I52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="I53" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -12682,7 +12949,7 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I65" t="s">
         <v>329</v>
@@ -12690,67 +12957,67 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="C75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660960E-E2F0-4156-90FA-1D178517E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478EF1C-8D5D-4697-8790-EBCF19A45A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="2385" windowWidth="21420" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14655" yWindow="2385" windowWidth="21420" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="380">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4106,6 +4106,42 @@
     <rPh sb="0" eb="4">
       <t>シンニュウキンシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター音量</t>
+    <rPh sb="4" eb="6">
+      <t>オンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm音量</t>
+    <rPh sb="3" eb="5">
+      <t>オンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se音量</t>
+    <rPh sb="2" eb="4">
+      <t>オンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視点感度</t>
+    <rPh sb="0" eb="4">
+      <t>シテンカンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルスクリーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11374,10 +11410,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
-  <dimension ref="A1:O336"/>
+  <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="Q312" sqref="Q312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12548,99 +12584,129 @@
         <v>354</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
-      <c r="B317" t="s">
-        <v>355</v>
-      </c>
-    </row>
     <row r="318" spans="1:3">
       <c r="B318" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="B319" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="B320" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="326" spans="2:2">
       <c r="B326" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="331" spans="2:2">
-      <c r="B331" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="B337" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" s="16" customFormat="1">
+      <c r="A339" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="B340" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="B341" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="B342" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="B343" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="B344" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -12657,8 +12723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478EF1C-8D5D-4697-8790-EBCF19A45A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C2E5FB-71F7-4249-AD25-1C7269587EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="2385" windowWidth="21420" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -10419,6 +10419,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457499</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>238324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81A99B9-64E5-4479-9932-1950922A1E5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="62769750"/>
+          <a:ext cx="2143424" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11412,8 +11456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="Q312" sqref="Q312"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="M255" sqref="M255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C2E5FB-71F7-4249-AD25-1C7269587EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8252224-8A79-468E-9EDD-1D9A6861724C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -3869,19 +3869,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・オプションシーンとポーズシーンの見た目、オプションシーンの実装</t>
-    <rPh sb="17" eb="18">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・リザルトシーンの見た目を考える</t>
     <rPh sb="9" eb="10">
       <t>ミ</t>
@@ -4142,6 +4129,43 @@
   </si>
   <si>
     <t>フルスクリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各ステージのハイスコアを残せるように</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オプションシーンの機能を実装</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オプションシーンとポーズシーンの見た目</t>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーズシーンを仮実装</t>
+    <rPh sb="8" eb="11">
+      <t>カリジッソウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11456,7 +11480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+    <sheetView topLeftCell="A244" workbookViewId="0">
       <selection activeCell="M255" sqref="M255"/>
     </sheetView>
   </sheetViews>
@@ -12590,167 +12614,167 @@
     </row>
     <row r="307" spans="1:3" s="16" customFormat="1">
       <c r="A307" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="B308" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="B309" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="B310" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="B311" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="B313" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="B314" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="B315" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="B318" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="B319" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="B320" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="326" spans="2:2">
       <c r="B326" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="B337" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="16" customFormat="1">
       <c r="A339" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="B340" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="B341" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="B342" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="B343" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="B344" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -12767,8 +12791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13069,11 +13093,22 @@
       <c r="B66" t="s">
         <v>334</v>
       </c>
+      <c r="I66" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="s">
         <v>335</v>
       </c>
+      <c r="I67" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="I68" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="s">
@@ -13102,32 +13137,32 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8252224-8A79-468E-9EDD-1D9A6861724C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F9F2E-0AF8-47E8-B9AB-2F5D9936DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="384">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4152,19 +4152,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・オプションシーンとポーズシーンの見た目</t>
-    <rPh sb="17" eb="18">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ポーズシーンを仮実装</t>
     <rPh sb="8" eb="11">
       <t>カリジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オプションシーンの見た目</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・連続キルの受付残り時間が見えるように</t>
+    <rPh sb="1" eb="3">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ウケツケノコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12792,7 +12808,7 @@
   <dimension ref="A2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13107,13 +13123,16 @@
     </row>
     <row r="68" spans="2:9">
       <c r="I68" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="s">
         <v>336</v>
       </c>
+      <c r="I69" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="s">
@@ -13137,7 +13156,7 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="2:9">

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F9F2E-0AF8-47E8-B9AB-2F5D9936DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFFF554-2099-446F-B768-CE220B0D51EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12808,7 +12808,7 @@
   <dimension ref="A2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFFF554-2099-446F-B768-CE220B0D51EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83AC924-1202-4BCB-8D69-9D46BE726253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14535" yWindow="4110" windowWidth="21420" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -12807,8 +12807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83AC924-1202-4BCB-8D69-9D46BE726253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B05F6-F8C3-4889-B3FB-594672371CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14535" yWindow="4110" windowWidth="21420" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="385">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4181,6 +4181,13 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・UIの調整</t>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12805,10 +12812,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I81"/>
+  <dimension ref="A2:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13182,6 +13189,11 @@
     <row r="81" spans="2:2">
       <c r="B81" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B05F6-F8C3-4889-B3FB-594672371CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E5DB17-79B8-4A89-8310-AB6AC2D5A59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14535" yWindow="4110" windowWidth="21420" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="386">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4188,6 +4188,16 @@
     <t>・UIの調整</t>
     <rPh sb="4" eb="6">
       <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・松明クラスを作っておきたい</t>
+    <rPh sb="1" eb="3">
+      <t>タイマツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12812,10 +12822,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I82"/>
+  <dimension ref="A2:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13194,6 +13204,11 @@
     <row r="82" spans="2:2">
       <c r="B82" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E5DB17-79B8-4A89-8310-AB6AC2D5A59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8A70C-D7F6-49A4-95E0-9B00B3C03FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="4575" windowWidth="21420" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="387">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4198,6 +4198,16 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの勝利アニメーションを変更</t>
+    <rPh sb="7" eb="9">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12822,10 +12832,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13203,11 +13213,16 @@
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
         <v>385</v>
       </c>
     </row>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8A70C-D7F6-49A4-95E0-9B00B3C03FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B11916-2840-4F84-BBF3-136D9B4AD467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="4575" windowWidth="21420" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="3540" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="400">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4209,6 +4209,106 @@
     <rPh sb="17" eb="19">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オプションで設定した値が実際に適用されるように</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インゲーム中に操作説明の画像が右下に出るように</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ソウサセツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フレイムトラップの実装</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トラップの攻撃範囲が設置前に見えるように</t>
+    <rPh sb="6" eb="10">
+      <t>コウゲキハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>セッチマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠は後実装できて</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>アトジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ハンマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アイアンスネア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インパクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵は</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージはあと2ぐらい？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12832,10 +12932,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I87"/>
+  <dimension ref="A2:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13165,11 +13265,27 @@
       <c r="B70" t="s">
         <v>337</v>
       </c>
+      <c r="I70" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="s">
         <v>338</v>
       </c>
+      <c r="I71" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="I72" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="I73" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="s">
@@ -13224,6 +13340,51 @@
     <row r="87" spans="2:2">
       <c r="B87" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B11916-2840-4F84-BBF3-136D9B4AD467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51543BFB-94D0-42FA-AB63-E5999F2C272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="3540" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="405">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4309,6 +4309,50 @@
   </si>
   <si>
     <t>ステージはあと2ぐらい？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位</t>
+    <rPh sb="0" eb="4">
+      <t>ユウセンジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト、サウンド、UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ、敵、罠の追加</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトシーンの演出、オプションシーンの見た目</t>
+    <rPh sb="8" eb="10">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12932,10 +12976,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I99"/>
+  <dimension ref="A2:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13385,6 +13429,31 @@
     <row r="99" spans="2:2">
       <c r="B99" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51543BFB-94D0-42FA-AB63-E5999F2C272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E90D2D-479D-4CB2-BBA9-4E285162DD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="3540" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="409">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4352,6 +4352,40 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作説明画像の変更</t>
+    <rPh sb="0" eb="6">
+      <t>ソウサセツメイガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアアニメーションの変更</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理負荷の軽減</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12976,10 +13010,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I110"/>
+  <dimension ref="A2:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13446,6 +13480,16 @@
         <v>404</v>
       </c>
     </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>406</v>
+      </c>
+    </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
         <v>402</v>
@@ -13454,6 +13498,16 @@
     <row r="110" spans="2:2">
       <c r="B110" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E90D2D-479D-4CB2-BBA9-4E285162DD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F28C4-6C36-42A1-9545-6E0E1CAEDB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="3540" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="2670" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="411">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4386,6 +4386,29 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの攻撃した時のリアクション</t>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの矢が見にくいためエフェクトを作成</t>
+    <rPh sb="7" eb="8">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13012,8 +13035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13408,6 +13431,16 @@
     <row r="82" spans="2:2">
       <c r="B82" t="s">
         <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="2:2">

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F28C4-6C36-42A1-9545-6E0E1CAEDB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CB6CBE-A65B-4AC0-B26B-EC7302386077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="2670" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3892,13 +3892,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・エフェクトとサウンドが何がいるかをリストアップ</t>
-    <rPh sb="12" eb="13">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・敵のモデルの変更</t>
     <rPh sb="1" eb="2">
       <t>テキ</t>
@@ -4409,6 +4402,13 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadFileを非同期</t>
+    <rPh sb="9" eb="12">
+      <t>ヒドウキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12858,167 +12858,167 @@
     </row>
     <row r="307" spans="1:3" s="16" customFormat="1">
       <c r="A307" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="B308" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="B309" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="B310" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="B311" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="B313" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="B314" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="B315" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="B318" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="B319" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="B320" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="326" spans="2:2">
       <c r="B326" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="B337" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="16" customFormat="1">
       <c r="A339" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="B340" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="B341" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="B342" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="B343" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="B344" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -13033,10 +13033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
-  <dimension ref="A2:I112"/>
+  <dimension ref="A2:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13325,7 +13325,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:10">
       <c r="B65" t="s">
         <v>333</v>
       </c>
@@ -13333,214 +13333,212 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:10">
       <c r="B66" t="s">
         <v>334</v>
       </c>
       <c r="I66" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" t="s">
         <v>335</v>
       </c>
       <c r="I67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="I68" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
-      <c r="I68" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:10">
       <c r="B69" t="s">
         <v>336</v>
       </c>
       <c r="I69" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
       <c r="B70" t="s">
         <v>337</v>
       </c>
       <c r="I70" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" t="s">
         <v>338</v>
       </c>
       <c r="I71" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="I72" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
-      <c r="I72" t="s">
+    <row r="73" spans="2:10">
+      <c r="I73" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="I73" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" t="s">
+    <row r="74" spans="2:10">
+      <c r="I74" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="I75" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
-      <c r="C75" t="s">
+    <row r="76" spans="2:10">
+      <c r="B76" t="s">
+        <v>381</v>
+      </c>
+      <c r="J76" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:10">
       <c r="B77" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:10">
       <c r="B78" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" t="s">
+    <row r="80" spans="2:10">
+      <c r="B80" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CB6CBE-A65B-4AC0-B26B-EC7302386077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C97271-45E0-4F3C-AC9C-8B3F04C7B683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="2670" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1905" windowWidth="21420" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -11724,8 +11724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="M255" sqref="M255"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="M251" sqref="M251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13035,7 +13035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0A3BC-5187-4522-BA47-55A0241FFAF8}">
   <dimension ref="A2:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>

--- a/就活作品.xlsx
+++ b/就活作品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C97271-45E0-4F3C-AC9C-8B3F04C7B683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C531D40-5843-438F-9DBC-69FCF1F7E8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1905" windowWidth="21420" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="実装メモ" sheetId="3" r:id="rId4"/>
     <sheet name="あ" sheetId="4" r:id="rId5"/>
     <sheet name="ライセンス" sheetId="6" r:id="rId6"/>
+    <sheet name="リファクタリング内容" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="443">
   <si>
     <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
     <rPh sb="0" eb="5">
@@ -4410,6 +4411,141 @@
     <rPh sb="9" eb="12">
       <t>ヒドウキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マジックナンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・関数・変数名</t>
+    <rPh sb="1" eb="3">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・冗長な関数を作らない</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コピペのコードを関数にする</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Geometry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyLib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジックナンバー</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>関数・変数名</t>
+  </si>
+  <si>
+    <t>冗長な関数を作らない</t>
+  </si>
+  <si>
+    <t>コピペのコードを関数にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/19</t>
+  </si>
+  <si>
+    <t>0/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/10</t>
+  </si>
+  <si>
+    <t>0/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>0/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/7</t>
+  </si>
+  <si>
+    <t>0/7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/11</t>
+  </si>
+  <si>
+    <t>0/11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/12</t>
+  </si>
+  <si>
+    <t>0/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>0/3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11724,7 +11860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91E5A1-8DCC-4A8B-A792-F55AF47D1F12}">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+    <sheetView topLeftCell="A235" workbookViewId="0">
       <selection activeCell="M251" sqref="M251"/>
     </sheetView>
   </sheetViews>
@@ -13582,4 +13718,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB47179F-17CC-4563-9092-DACB41974F69}">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" t="s">
+        <v>435</v>
+      </c>
+      <c r="F13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" t="s">
+        <v>439</v>
+      </c>
+      <c r="F15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" t="s">
+        <v>441</v>
+      </c>
+      <c r="F16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" t="s">
+        <v>441</v>
+      </c>
+      <c r="D17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>